--- a/medicine/Pharmacie/Système_national_d'identification_des_toxiques_et_substances/Système_national_d'identification_des_toxiques_et_substances.xlsx
+++ b/medicine/Pharmacie/Système_national_d'identification_des_toxiques_et_substances/Système_national_d'identification_des_toxiques_et_substances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_national_d%27identification_des_toxiques_et_substances</t>
+          <t>Système_national_d'identification_des_toxiques_et_substances</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Système d'identification national des toxiques et substances ou Sintes est un dispositif français de veille et d'information sur les drogues synthétiques dont la circulation est observée en France. 
 Il s'intègre au système plus large Trend, piloté par l’OFDT. Sa création en 1999 dans le cadre des orientations du Plan triennal de lutte contre la drogue et de prévention des dépendances, est une réponse à un manque d'information sur les drogues de synthèse consommées en France.
